--- a/Assets/Excels/TileTable.xlsx
+++ b/Assets/Excels/TileTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoGameClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C38E400-CAC4-45F0-84D9-CB65EE0B9544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB57F5F5-9F2E-4FDD-9075-EE5355367141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TileData" sheetId="5" r:id="rId1"/>
@@ -24,6 +24,52 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={3546E133-6F10-44A6-BEEF-7AED90BF251C}</author>
+    <author>tc={9222DA05-409B-47DF-B7BC-A347570A689C}</author>
+    <author>tc={B0FE11A9-DC21-4276-B50D-488748FFADD5}</author>
+    <author>tc={3E006037-B973-43CF-A961-0E6C1E52F457}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{3546E133-6F10-44A6-BEEF-7AED90BF251C}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    툴 창에 뜨는 특수 타일 이름</t>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="1" shapeId="0" xr:uid="{9222DA05-409B-47DF-B7BC-A347570A689C}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    타일 모양 리소스 경로</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{B0FE11A9-DC21-4276-B50D-488748FFADD5}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    기능 (개발 필요)</t>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="3" shapeId="0" xr:uid="{3E006037-B973-43CF-A961-0E6C1E52F457}">
+      <text>
+        <t xml:space="preserve">[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    액션 타입에 따른 수행 파라미터
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
@@ -75,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +135,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,6 +180,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="유지현" id="{DDC8F913-6B50-4225-9A98-2A542F9D38B3}" userId="S::C011128@mail.hongik.ac.kr::eee9a582-c747-4bd0-8e73-515c3b4ae647" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,12 +449,30 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2024-06-22T16:20:35.02" personId="{DDC8F913-6B50-4225-9A98-2A542F9D38B3}" id="{3546E133-6F10-44A6-BEEF-7AED90BF251C}">
+    <text>툴 창에 뜨는 특수 타일 이름</text>
+  </threadedComment>
+  <threadedComment ref="B2" dT="2024-06-22T16:22:11.58" personId="{DDC8F913-6B50-4225-9A98-2A542F9D38B3}" id="{9222DA05-409B-47DF-B7BC-A347570A689C}">
+    <text>타일 모양 리소스 경로</text>
+  </threadedComment>
+  <threadedComment ref="C2" dT="2024-06-22T16:20:54.21" personId="{DDC8F913-6B50-4225-9A98-2A542F9D38B3}" id="{B0FE11A9-DC21-4276-B50D-488748FFADD5}">
+    <text>기능 (개발 필요)</text>
+  </threadedComment>
+  <threadedComment ref="D2" dT="2024-06-22T16:21:12.57" personId="{DDC8F913-6B50-4225-9A98-2A542F9D38B3}" id="{3E006037-B973-43CF-A961-0E6C1E52F457}">
+    <text xml:space="preserve">액션 타입에 따른 수행 파라미터
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -466,5 +542,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Excels/TileTable.xlsx
+++ b/Assets/Excels/TileTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoGameClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB57F5F5-9F2E-4FDD-9075-EE5355367141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC13415-0C9D-4E70-835A-6F5A18F46556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,22 @@
   </si>
   <si>
     <t>RollBack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RollBack1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RollBack3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,12 +151,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -469,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -513,7 +523,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -522,21 +532,77 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/TileTable.xlsx
+++ b/Assets/Excels/TileTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoGameClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC13415-0C9D-4E70-835A-6F5A18F46556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2C75EA-06A6-494B-AABF-0B664BBEFD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={3546E133-6F10-44A6-BEEF-7AED90BF251C}</author>
-    <author>tc={9222DA05-409B-47DF-B7BC-A347570A689C}</author>
     <author>tc={B0FE11A9-DC21-4276-B50D-488748FFADD5}</author>
     <author>tc={3E006037-B973-43CF-A961-0E6C1E52F457}</author>
   </authors>
@@ -41,23 +40,19 @@
     툴 창에 뜨는 특수 타일 이름</t>
       </text>
     </comment>
-    <comment ref="B2" authorId="1" shapeId="0" xr:uid="{9222DA05-409B-47DF-B7BC-A347570A689C}">
+    <comment ref="B2" authorId="1" shapeId="0" xr:uid="{B0FE11A9-DC21-4276-B50D-488748FFADD5}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
-    타일 모양 리소스 경로</t>
+    기능 (개발 필요)
+답글:
+    Jump : parameter만큼 앞으로 이동
+답글:
+    RollBack : parameter만큼 뒤로 이동</t>
       </text>
     </comment>
-    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{B0FE11A9-DC21-4276-B50D-488748FFADD5}">
-      <text>
-        <t>[스레드 댓글]
-사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
-댓글:
-    기능 (개발 필요)</t>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="3" shapeId="0" xr:uid="{3E006037-B973-43CF-A961-0E6C1E52F457}">
+    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{3E006037-B973-43CF-A961-0E6C1E52F457}">
       <text>
         <t xml:space="preserve">[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -71,21 +66,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Resources/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tileCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tileAssetPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -194,6 +181,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="박솔휘 [Park, Solhwi]" id="{3CCE3FDA-FB78-426E-8BDC-BC5F25AAAD59}" userId="S::psh50zmfhtm@neople.co.kr::763decc3-e1b2-4a9c-a8c1-b8eff7c54800" providerId="AD"/>
   <person displayName="유지현" id="{DDC8F913-6B50-4225-9A98-2A542F9D38B3}" userId="S::C011128@mail.hongik.ac.kr::eee9a582-c747-4bd0-8e73-515c3b4ae647" providerId="AD"/>
 </personList>
 </file>
@@ -464,13 +452,16 @@
   <threadedComment ref="A2" dT="2024-06-22T16:20:35.02" personId="{DDC8F913-6B50-4225-9A98-2A542F9D38B3}" id="{3546E133-6F10-44A6-BEEF-7AED90BF251C}">
     <text>툴 창에 뜨는 특수 타일 이름</text>
   </threadedComment>
-  <threadedComment ref="B2" dT="2024-06-22T16:22:11.58" personId="{DDC8F913-6B50-4225-9A98-2A542F9D38B3}" id="{9222DA05-409B-47DF-B7BC-A347570A689C}">
-    <text>타일 모양 리소스 경로</text>
-  </threadedComment>
-  <threadedComment ref="C2" dT="2024-06-22T16:20:54.21" personId="{DDC8F913-6B50-4225-9A98-2A542F9D38B3}" id="{B0FE11A9-DC21-4276-B50D-488748FFADD5}">
+  <threadedComment ref="B2" dT="2024-06-22T16:20:54.21" personId="{DDC8F913-6B50-4225-9A98-2A542F9D38B3}" id="{B0FE11A9-DC21-4276-B50D-488748FFADD5}">
     <text>기능 (개발 필요)</text>
   </threadedComment>
-  <threadedComment ref="D2" dT="2024-06-22T16:21:12.57" personId="{DDC8F913-6B50-4225-9A98-2A542F9D38B3}" id="{3E006037-B973-43CF-A961-0E6C1E52F457}">
+  <threadedComment ref="B2" dT="2024-06-26T13:28:38.29" personId="{3CCE3FDA-FB78-426E-8BDC-BC5F25AAAD59}" id="{0DD154DF-A23B-4D53-BA6F-BE70C4F234D4}" parentId="{B0FE11A9-DC21-4276-B50D-488748FFADD5}">
+    <text>Jump : parameter만큼 앞으로 이동</text>
+  </threadedComment>
+  <threadedComment ref="B2" dT="2024-06-26T13:28:47.84" personId="{3CCE3FDA-FB78-426E-8BDC-BC5F25AAAD59}" id="{FFCCD032-21C6-46A5-A44C-97BF686F2AEB}" parentId="{B0FE11A9-DC21-4276-B50D-488748FFADD5}">
+    <text>RollBack : parameter만큼 뒤로 이동</text>
+  </threadedComment>
+  <threadedComment ref="C2" dT="2024-06-22T16:21:12.57" personId="{DDC8F913-6B50-4225-9A98-2A542F9D38B3}" id="{3E006037-B973-43CF-A961-0E6C1E52F457}">
     <text xml:space="preserve">액션 타입에 따른 수행 파라미터
 </text>
   </threadedComment>
@@ -479,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -493,115 +484,91 @@
     <col min="4" max="4" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>3</v>
       </c>
     </row>
